--- a/po_analysis_by_asin/B0BVWQ3BMJ_po_data.xlsx
+++ b/po_analysis_by_asin/B0BVWQ3BMJ_po_data.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B25"/>
+  <dimension ref="A1:B55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,47 +452,47 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45292</v>
+        <v>44990.99999999999</v>
       </c>
       <c r="B2" t="n">
-        <v>510</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45306</v>
+        <v>44997.99999999999</v>
       </c>
       <c r="B3" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45320</v>
+        <v>45011.99999999999</v>
       </c>
       <c r="B4" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45327</v>
+        <v>45025.99999999999</v>
       </c>
       <c r="B5" t="n">
-        <v>600</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45355</v>
+        <v>45039.99999999999</v>
       </c>
       <c r="B6" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45362</v>
+        <v>45046.99999999999</v>
       </c>
       <c r="B7" t="n">
         <v>20</v>
@@ -500,145 +500,385 @@
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45369</v>
+        <v>45053.99999999999</v>
       </c>
       <c r="B8" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45376</v>
+        <v>45060.99999999999</v>
       </c>
       <c r="B9" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45390</v>
+        <v>45067.99999999999</v>
       </c>
       <c r="B10" t="n">
-        <v>60</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45397</v>
+        <v>45074.99999999999</v>
       </c>
       <c r="B11" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>45404</v>
+        <v>45081.99999999999</v>
       </c>
       <c r="B12" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>45411</v>
+        <v>45088.99999999999</v>
       </c>
       <c r="B13" t="n">
-        <v>60</v>
+        <v>20</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>45418</v>
+        <v>45095.99999999999</v>
       </c>
       <c r="B14" t="n">
-        <v>120</v>
+        <v>20</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>45453</v>
+        <v>45102.99999999999</v>
       </c>
       <c r="B15" t="n">
-        <v>160</v>
+        <v>40</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>45460</v>
+        <v>45109.99999999999</v>
       </c>
       <c r="B16" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>45474</v>
+        <v>45116.99999999999</v>
       </c>
       <c r="B17" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>45481</v>
+        <v>45130.99999999999</v>
       </c>
       <c r="B18" t="n">
-        <v>80</v>
+        <v>130</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>45488</v>
+        <v>45137.99999999999</v>
       </c>
       <c r="B19" t="n">
-        <v>20</v>
+        <v>180</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>45495</v>
+        <v>45165.99999999999</v>
       </c>
       <c r="B20" t="n">
-        <v>60</v>
+        <v>20</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>45502</v>
+        <v>45179.99999999999</v>
       </c>
       <c r="B21" t="n">
-        <v>20</v>
+        <v>60</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>45509</v>
+        <v>45186.99999999999</v>
       </c>
       <c r="B22" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>45516</v>
+        <v>45193.99999999999</v>
       </c>
       <c r="B23" t="n">
-        <v>80</v>
+        <v>130</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>45523</v>
+        <v>45214.99999999999</v>
       </c>
       <c r="B24" t="n">
-        <v>100</v>
+        <v>40</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>45530</v>
+        <v>45221.99999999999</v>
       </c>
       <c r="B25" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>45235.99999999999</v>
+      </c>
+      <c r="B26" t="n">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>45242.99999999999</v>
+      </c>
+      <c r="B27" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>45249.99999999999</v>
+      </c>
+      <c r="B28" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>45256.99999999999</v>
+      </c>
+      <c r="B29" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>45270.99999999999</v>
+      </c>
+      <c r="B30" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>45277.99999999999</v>
+      </c>
+      <c r="B31" t="n">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>45298.99999999999</v>
+      </c>
+      <c r="B32" t="n">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>45312.99999999999</v>
+      </c>
+      <c r="B33" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>45326.99999999999</v>
+      </c>
+      <c r="B34" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>45333.99999999999</v>
+      </c>
+      <c r="B35" t="n">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>45361.99999999999</v>
+      </c>
+      <c r="B36" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>45368.99999999999</v>
+      </c>
+      <c r="B37" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>45375.99999999999</v>
+      </c>
+      <c r="B38" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>45382.99999999999</v>
+      </c>
+      <c r="B39" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>45396.99999999999</v>
+      </c>
+      <c r="B40" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>45403.99999999999</v>
+      </c>
+      <c r="B41" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>45410.99999999999</v>
+      </c>
+      <c r="B42" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>45417.99999999999</v>
+      </c>
+      <c r="B43" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>45424.99999999999</v>
+      </c>
+      <c r="B44" t="n">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>45459.99999999999</v>
+      </c>
+      <c r="B45" t="n">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>45466.99999999999</v>
+      </c>
+      <c r="B46" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45480.99999999999</v>
+      </c>
+      <c r="B47" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>45487.99999999999</v>
+      </c>
+      <c r="B48" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>45494.99999999999</v>
+      </c>
+      <c r="B49" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>45501.99999999999</v>
+      </c>
+      <c r="B50" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>45508.99999999999</v>
+      </c>
+      <c r="B51" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>45515.99999999999</v>
+      </c>
+      <c r="B52" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>45522.99999999999</v>
+      </c>
+      <c r="B53" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>45529.99999999999</v>
+      </c>
+      <c r="B54" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>45536.99999999999</v>
+      </c>
+      <c r="B55" t="n">
         <v>120</v>
       </c>
     </row>
@@ -653,7 +893,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:B19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -675,65 +915,145 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45292</v>
+        <v>45016.99999999999</v>
       </c>
       <c r="B2" t="n">
-        <v>570</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45323</v>
+        <v>45046.99999999999</v>
       </c>
       <c r="B3" t="n">
-        <v>600</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45352</v>
+        <v>45077.99999999999</v>
       </c>
       <c r="B4" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45383</v>
+        <v>45107.99999999999</v>
       </c>
       <c r="B5" t="n">
-        <v>120</v>
+        <v>140</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45413</v>
+        <v>45138.99999999999</v>
       </c>
       <c r="B6" t="n">
-        <v>180</v>
+        <v>320</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45444</v>
+        <v>45169.99999999999</v>
       </c>
       <c r="B7" t="n">
-        <v>200</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45474</v>
+        <v>45199.99999999999</v>
       </c>
       <c r="B8" t="n">
-        <v>200</v>
+        <v>220</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45505</v>
+        <v>45230.99999999999</v>
       </c>
       <c r="B9" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>45260.99999999999</v>
+      </c>
+      <c r="B10" t="n">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>45291.99999999999</v>
+      </c>
+      <c r="B11" t="n">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>45322.99999999999</v>
+      </c>
+      <c r="B12" t="n">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>45351.99999999999</v>
+      </c>
+      <c r="B13" t="n">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>45382.99999999999</v>
+      </c>
+      <c r="B14" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>45412.99999999999</v>
+      </c>
+      <c r="B15" t="n">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>45443.99999999999</v>
+      </c>
+      <c r="B16" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>45473.99999999999</v>
+      </c>
+      <c r="B17" t="n">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>45504.99999999999</v>
+      </c>
+      <c r="B18" t="n">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>45535.99999999999</v>
+      </c>
+      <c r="B19" t="n">
         <v>320</v>
       </c>
     </row>

--- a/po_analysis_by_asin/B0BVWQ3BMJ_po_data.xlsx
+++ b/po_analysis_by_asin/B0BVWQ3BMJ_po_data.xlsx
@@ -9,6 +9,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Weekly Quantity" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Monthly Trend" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PO Forecast" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -446,7 +447,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Requested quantity</t>
+          <t>Weekly_PO_Qty</t>
         </is>
       </c>
     </row>
@@ -909,7 +910,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Requested quantity</t>
+          <t>Monthly_PO_Qty</t>
         </is>
       </c>
     </row>
@@ -1055,6 +1056,915 @@
       </c>
       <c r="B19" t="n">
         <v>320</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D63"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>ds</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>PO_Forecast</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>yhat_lower</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>yhat_upper</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>44990.99999999999</v>
+      </c>
+      <c r="B2" t="n">
+        <v>41</v>
+      </c>
+      <c r="C2" t="n">
+        <v>-89.50606858047293</v>
+      </c>
+      <c r="D2" t="n">
+        <v>179.7957006340748</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>44997.99999999999</v>
+      </c>
+      <c r="B3" t="n">
+        <v>41</v>
+      </c>
+      <c r="C3" t="n">
+        <v>-102.1342346969065</v>
+      </c>
+      <c r="D3" t="n">
+        <v>172.7035634709087</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>45011.99999999999</v>
+      </c>
+      <c r="B4" t="n">
+        <v>43</v>
+      </c>
+      <c r="C4" t="n">
+        <v>-93.45419251997258</v>
+      </c>
+      <c r="D4" t="n">
+        <v>172.7342859123707</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>45025.99999999999</v>
+      </c>
+      <c r="B5" t="n">
+        <v>44</v>
+      </c>
+      <c r="C5" t="n">
+        <v>-95.37181522762005</v>
+      </c>
+      <c r="D5" t="n">
+        <v>173.4782025932979</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>45039.99999999999</v>
+      </c>
+      <c r="B6" t="n">
+        <v>46</v>
+      </c>
+      <c r="C6" t="n">
+        <v>-83.87047367189332</v>
+      </c>
+      <c r="D6" t="n">
+        <v>183.0561959537235</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>45046.99999999999</v>
+      </c>
+      <c r="B7" t="n">
+        <v>46</v>
+      </c>
+      <c r="C7" t="n">
+        <v>-86.0565346708544</v>
+      </c>
+      <c r="D7" t="n">
+        <v>172.0815755254318</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>45053.99999999999</v>
+      </c>
+      <c r="B8" t="n">
+        <v>47</v>
+      </c>
+      <c r="C8" t="n">
+        <v>-85.08141748213735</v>
+      </c>
+      <c r="D8" t="n">
+        <v>186.892664825666</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>45060.99999999999</v>
+      </c>
+      <c r="B9" t="n">
+        <v>48</v>
+      </c>
+      <c r="C9" t="n">
+        <v>-83.16013135943128</v>
+      </c>
+      <c r="D9" t="n">
+        <v>178.3754046558724</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>45067.99999999999</v>
+      </c>
+      <c r="B10" t="n">
+        <v>49</v>
+      </c>
+      <c r="C10" t="n">
+        <v>-83.85073579688374</v>
+      </c>
+      <c r="D10" t="n">
+        <v>181.8080493927991</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>45074.99999999999</v>
+      </c>
+      <c r="B11" t="n">
+        <v>49</v>
+      </c>
+      <c r="C11" t="n">
+        <v>-77.04770440121435</v>
+      </c>
+      <c r="D11" t="n">
+        <v>180.6361588223857</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>45081.99999999999</v>
+      </c>
+      <c r="B12" t="n">
+        <v>50</v>
+      </c>
+      <c r="C12" t="n">
+        <v>-77.31079287670971</v>
+      </c>
+      <c r="D12" t="n">
+        <v>179.1027588761264</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>45088.99999999999</v>
+      </c>
+      <c r="B13" t="n">
+        <v>51</v>
+      </c>
+      <c r="C13" t="n">
+        <v>-86.1287455283346</v>
+      </c>
+      <c r="D13" t="n">
+        <v>191.295203910469</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>45095.99999999999</v>
+      </c>
+      <c r="B14" t="n">
+        <v>52</v>
+      </c>
+      <c r="C14" t="n">
+        <v>-81.97446575108042</v>
+      </c>
+      <c r="D14" t="n">
+        <v>185.9687576311161</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>45102.99999999999</v>
+      </c>
+      <c r="B15" t="n">
+        <v>52</v>
+      </c>
+      <c r="C15" t="n">
+        <v>-80.82025799688719</v>
+      </c>
+      <c r="D15" t="n">
+        <v>183.5826674569251</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>45109.99999999999</v>
+      </c>
+      <c r="B16" t="n">
+        <v>53</v>
+      </c>
+      <c r="C16" t="n">
+        <v>-94.42882673831336</v>
+      </c>
+      <c r="D16" t="n">
+        <v>179.4854933884369</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>45116.99999999999</v>
+      </c>
+      <c r="B17" t="n">
+        <v>54</v>
+      </c>
+      <c r="C17" t="n">
+        <v>-77.02516326182557</v>
+      </c>
+      <c r="D17" t="n">
+        <v>187.1012605418837</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>45130.99999999999</v>
+      </c>
+      <c r="B18" t="n">
+        <v>55</v>
+      </c>
+      <c r="C18" t="n">
+        <v>-78.18690059249755</v>
+      </c>
+      <c r="D18" t="n">
+        <v>185.8352624544149</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>45137.99999999999</v>
+      </c>
+      <c r="B19" t="n">
+        <v>56</v>
+      </c>
+      <c r="C19" t="n">
+        <v>-69.15390274680288</v>
+      </c>
+      <c r="D19" t="n">
+        <v>192.682248830942</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>45165.99999999999</v>
+      </c>
+      <c r="B20" t="n">
+        <v>59</v>
+      </c>
+      <c r="C20" t="n">
+        <v>-77.38715940872845</v>
+      </c>
+      <c r="D20" t="n">
+        <v>178.3257491138096</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>45179.99999999999</v>
+      </c>
+      <c r="B21" t="n">
+        <v>60</v>
+      </c>
+      <c r="C21" t="n">
+        <v>-72.86308029547567</v>
+      </c>
+      <c r="D21" t="n">
+        <v>194.751379990795</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>45186.99999999999</v>
+      </c>
+      <c r="B22" t="n">
+        <v>61</v>
+      </c>
+      <c r="C22" t="n">
+        <v>-73.61500877339516</v>
+      </c>
+      <c r="D22" t="n">
+        <v>191.8454596156341</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>45193.99999999999</v>
+      </c>
+      <c r="B23" t="n">
+        <v>62</v>
+      </c>
+      <c r="C23" t="n">
+        <v>-68.55901544253433</v>
+      </c>
+      <c r="D23" t="n">
+        <v>200.4273245778207</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>45214.99999999999</v>
+      </c>
+      <c r="B24" t="n">
+        <v>64</v>
+      </c>
+      <c r="C24" t="n">
+        <v>-74.16234316939151</v>
+      </c>
+      <c r="D24" t="n">
+        <v>194.6041687462691</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>45221.99999999999</v>
+      </c>
+      <c r="B25" t="n">
+        <v>64</v>
+      </c>
+      <c r="C25" t="n">
+        <v>-68.39610949551252</v>
+      </c>
+      <c r="D25" t="n">
+        <v>201.8970993431581</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>45235.99999999999</v>
+      </c>
+      <c r="B26" t="n">
+        <v>66</v>
+      </c>
+      <c r="C26" t="n">
+        <v>-67.90775758380006</v>
+      </c>
+      <c r="D26" t="n">
+        <v>201.6914081201685</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>45242.99999999999</v>
+      </c>
+      <c r="B27" t="n">
+        <v>67</v>
+      </c>
+      <c r="C27" t="n">
+        <v>-71.18075566966778</v>
+      </c>
+      <c r="D27" t="n">
+        <v>195.0971862846638</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>45249.99999999999</v>
+      </c>
+      <c r="B28" t="n">
+        <v>67</v>
+      </c>
+      <c r="C28" t="n">
+        <v>-65.14305839833482</v>
+      </c>
+      <c r="D28" t="n">
+        <v>195.7171030589973</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>45256.99999999999</v>
+      </c>
+      <c r="B29" t="n">
+        <v>68</v>
+      </c>
+      <c r="C29" t="n">
+        <v>-72.17878921177009</v>
+      </c>
+      <c r="D29" t="n">
+        <v>202.387267402619</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>45270.99999999999</v>
+      </c>
+      <c r="B30" t="n">
+        <v>69</v>
+      </c>
+      <c r="C30" t="n">
+        <v>-73.34111808371118</v>
+      </c>
+      <c r="D30" t="n">
+        <v>198.4290479865792</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>45277.99999999999</v>
+      </c>
+      <c r="B31" t="n">
+        <v>70</v>
+      </c>
+      <c r="C31" t="n">
+        <v>-56.67577420658425</v>
+      </c>
+      <c r="D31" t="n">
+        <v>215.0835933481424</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>45298.99999999999</v>
+      </c>
+      <c r="B32" t="n">
+        <v>72</v>
+      </c>
+      <c r="C32" t="n">
+        <v>-59.58270193933155</v>
+      </c>
+      <c r="D32" t="n">
+        <v>213.2818235495887</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>45312.99999999999</v>
+      </c>
+      <c r="B33" t="n">
+        <v>74</v>
+      </c>
+      <c r="C33" t="n">
+        <v>-54.60455913238223</v>
+      </c>
+      <c r="D33" t="n">
+        <v>209.2890730237712</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>45326.99999999999</v>
+      </c>
+      <c r="B34" t="n">
+        <v>75</v>
+      </c>
+      <c r="C34" t="n">
+        <v>-51.06743726399991</v>
+      </c>
+      <c r="D34" t="n">
+        <v>212.1685816866676</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>45333.99999999999</v>
+      </c>
+      <c r="B35" t="n">
+        <v>76</v>
+      </c>
+      <c r="C35" t="n">
+        <v>-60.87863763053552</v>
+      </c>
+      <c r="D35" t="n">
+        <v>198.8274402744682</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>45361.99999999999</v>
+      </c>
+      <c r="B36" t="n">
+        <v>79</v>
+      </c>
+      <c r="C36" t="n">
+        <v>-59.61924189774241</v>
+      </c>
+      <c r="D36" t="n">
+        <v>198.9335088402317</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>45368.99999999999</v>
+      </c>
+      <c r="B37" t="n">
+        <v>79</v>
+      </c>
+      <c r="C37" t="n">
+        <v>-56.84614039383105</v>
+      </c>
+      <c r="D37" t="n">
+        <v>206.2487291476089</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>45375.99999999999</v>
+      </c>
+      <c r="B38" t="n">
+        <v>80</v>
+      </c>
+      <c r="C38" t="n">
+        <v>-55.13084104117181</v>
+      </c>
+      <c r="D38" t="n">
+        <v>212.9843104681838</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>45382.99999999999</v>
+      </c>
+      <c r="B39" t="n">
+        <v>81</v>
+      </c>
+      <c r="C39" t="n">
+        <v>-50.76954443525399</v>
+      </c>
+      <c r="D39" t="n">
+        <v>204.5016200197873</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>45396.99999999999</v>
+      </c>
+      <c r="B40" t="n">
+        <v>82</v>
+      </c>
+      <c r="C40" t="n">
+        <v>-59.58941447617529</v>
+      </c>
+      <c r="D40" t="n">
+        <v>209.2721255467738</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>45403.99999999999</v>
+      </c>
+      <c r="B41" t="n">
+        <v>83</v>
+      </c>
+      <c r="C41" t="n">
+        <v>-50.35887676727876</v>
+      </c>
+      <c r="D41" t="n">
+        <v>223.163167085258</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>45410.99999999999</v>
+      </c>
+      <c r="B42" t="n">
+        <v>84</v>
+      </c>
+      <c r="C42" t="n">
+        <v>-38.51324335637922</v>
+      </c>
+      <c r="D42" t="n">
+        <v>215.3134641466439</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>45417.99999999999</v>
+      </c>
+      <c r="B43" t="n">
+        <v>84</v>
+      </c>
+      <c r="C43" t="n">
+        <v>-45.65863728436909</v>
+      </c>
+      <c r="D43" t="n">
+        <v>217.2923677341927</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>45424.99999999999</v>
+      </c>
+      <c r="B44" t="n">
+        <v>85</v>
+      </c>
+      <c r="C44" t="n">
+        <v>-44.37258817790311</v>
+      </c>
+      <c r="D44" t="n">
+        <v>220.8570796239159</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>45459.99999999999</v>
+      </c>
+      <c r="B45" t="n">
+        <v>89</v>
+      </c>
+      <c r="C45" t="n">
+        <v>-44.60167700595971</v>
+      </c>
+      <c r="D45" t="n">
+        <v>211.7279555178088</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>45466.99999999999</v>
+      </c>
+      <c r="B46" t="n">
+        <v>89</v>
+      </c>
+      <c r="C46" t="n">
+        <v>-33.77454135009368</v>
+      </c>
+      <c r="D46" t="n">
+        <v>232.8238515763462</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45480.99999999999</v>
+      </c>
+      <c r="B47" t="n">
+        <v>91</v>
+      </c>
+      <c r="C47" t="n">
+        <v>-43.13864414665338</v>
+      </c>
+      <c r="D47" t="n">
+        <v>219.3779010775385</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>45487.99999999999</v>
+      </c>
+      <c r="B48" t="n">
+        <v>92</v>
+      </c>
+      <c r="C48" t="n">
+        <v>-42.12111442780365</v>
+      </c>
+      <c r="D48" t="n">
+        <v>225.6580613606374</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>45494.99999999999</v>
+      </c>
+      <c r="B49" t="n">
+        <v>92</v>
+      </c>
+      <c r="C49" t="n">
+        <v>-37.68556528628482</v>
+      </c>
+      <c r="D49" t="n">
+        <v>222.9284515360052</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>45501.99999999999</v>
+      </c>
+      <c r="B50" t="n">
+        <v>93</v>
+      </c>
+      <c r="C50" t="n">
+        <v>-39.71769902240941</v>
+      </c>
+      <c r="D50" t="n">
+        <v>224.4124304749129</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>45508.99999999999</v>
+      </c>
+      <c r="B51" t="n">
+        <v>94</v>
+      </c>
+      <c r="C51" t="n">
+        <v>-34.16100298626581</v>
+      </c>
+      <c r="D51" t="n">
+        <v>231.9076509029759</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>45515.99999999999</v>
+      </c>
+      <c r="B52" t="n">
+        <v>94</v>
+      </c>
+      <c r="C52" t="n">
+        <v>-33.9444576702701</v>
+      </c>
+      <c r="D52" t="n">
+        <v>229.2046116642845</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>45522.99999999999</v>
+      </c>
+      <c r="B53" t="n">
+        <v>95</v>
+      </c>
+      <c r="C53" t="n">
+        <v>-37.88884242486667</v>
+      </c>
+      <c r="D53" t="n">
+        <v>239.3693566359052</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>45529.99999999999</v>
+      </c>
+      <c r="B54" t="n">
+        <v>96</v>
+      </c>
+      <c r="C54" t="n">
+        <v>-34.65896578218703</v>
+      </c>
+      <c r="D54" t="n">
+        <v>233.6175535044598</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>45536.99999999999</v>
+      </c>
+      <c r="B55" t="n">
+        <v>97</v>
+      </c>
+      <c r="C55" t="n">
+        <v>-37.89812821312167</v>
+      </c>
+      <c r="D55" t="n">
+        <v>228.1334482286829</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>45543.99999999999</v>
+      </c>
+      <c r="B56" t="n">
+        <v>97</v>
+      </c>
+      <c r="C56" t="n">
+        <v>-36.47231347910745</v>
+      </c>
+      <c r="D56" t="n">
+        <v>231.2108266560249</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>45550.99999999999</v>
+      </c>
+      <c r="B57" t="n">
+        <v>98</v>
+      </c>
+      <c r="C57" t="n">
+        <v>-29.5925225822459</v>
+      </c>
+      <c r="D57" t="n">
+        <v>231.3198806285499</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>45557.99999999999</v>
+      </c>
+      <c r="B58" t="n">
+        <v>99</v>
+      </c>
+      <c r="C58" t="n">
+        <v>-41.37707602714326</v>
+      </c>
+      <c r="D58" t="n">
+        <v>226.6649817629838</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>45564.99999999999</v>
+      </c>
+      <c r="B59" t="n">
+        <v>99</v>
+      </c>
+      <c r="C59" t="n">
+        <v>-23.13701889821078</v>
+      </c>
+      <c r="D59" t="n">
+        <v>233.8623324681299</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>45571.99999999999</v>
+      </c>
+      <c r="B60" t="n">
+        <v>100</v>
+      </c>
+      <c r="C60" t="n">
+        <v>-24.35929472797083</v>
+      </c>
+      <c r="D60" t="n">
+        <v>224.9723641279391</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>45578.99999999999</v>
+      </c>
+      <c r="B61" t="n">
+        <v>101</v>
+      </c>
+      <c r="C61" t="n">
+        <v>-29.44259352608129</v>
+      </c>
+      <c r="D61" t="n">
+        <v>231.3619123069622</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>45585.99999999999</v>
+      </c>
+      <c r="B62" t="n">
+        <v>102</v>
+      </c>
+      <c r="C62" t="n">
+        <v>-27.32735210404779</v>
+      </c>
+      <c r="D62" t="n">
+        <v>236.9718910869815</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>45592.99999999999</v>
+      </c>
+      <c r="B63" t="n">
+        <v>102</v>
+      </c>
+      <c r="C63" t="n">
+        <v>-30.92341360175019</v>
+      </c>
+      <c r="D63" t="n">
+        <v>222.7479214096296</v>
       </c>
     </row>
   </sheetData>

--- a/po_analysis_by_asin/B0BVWQ3BMJ_po_data.xlsx
+++ b/po_analysis_by_asin/B0BVWQ3BMJ_po_data.xlsx
@@ -1069,7 +1069,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D63"/>
+  <dimension ref="A1:B63"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1088,16 +1088,6 @@
           <t>PO_Forecast</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>yhat_lower</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>yhat_upper</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
@@ -1106,12 +1096,6 @@
       <c r="B2" t="n">
         <v>41</v>
       </c>
-      <c r="C2" t="n">
-        <v>-89.50606858047293</v>
-      </c>
-      <c r="D2" t="n">
-        <v>179.7957006340748</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
@@ -1120,12 +1104,6 @@
       <c r="B3" t="n">
         <v>41</v>
       </c>
-      <c r="C3" t="n">
-        <v>-102.1342346969065</v>
-      </c>
-      <c r="D3" t="n">
-        <v>172.7035634709087</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
@@ -1134,12 +1112,6 @@
       <c r="B4" t="n">
         <v>43</v>
       </c>
-      <c r="C4" t="n">
-        <v>-93.45419251997258</v>
-      </c>
-      <c r="D4" t="n">
-        <v>172.7342859123707</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
@@ -1148,12 +1120,6 @@
       <c r="B5" t="n">
         <v>44</v>
       </c>
-      <c r="C5" t="n">
-        <v>-95.37181522762005</v>
-      </c>
-      <c r="D5" t="n">
-        <v>173.4782025932979</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
@@ -1162,12 +1128,6 @@
       <c r="B6" t="n">
         <v>46</v>
       </c>
-      <c r="C6" t="n">
-        <v>-83.87047367189332</v>
-      </c>
-      <c r="D6" t="n">
-        <v>183.0561959537235</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
@@ -1176,12 +1136,6 @@
       <c r="B7" t="n">
         <v>46</v>
       </c>
-      <c r="C7" t="n">
-        <v>-86.0565346708544</v>
-      </c>
-      <c r="D7" t="n">
-        <v>172.0815755254318</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
@@ -1190,12 +1144,6 @@
       <c r="B8" t="n">
         <v>47</v>
       </c>
-      <c r="C8" t="n">
-        <v>-85.08141748213735</v>
-      </c>
-      <c r="D8" t="n">
-        <v>186.892664825666</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
@@ -1204,12 +1152,6 @@
       <c r="B9" t="n">
         <v>48</v>
       </c>
-      <c r="C9" t="n">
-        <v>-83.16013135943128</v>
-      </c>
-      <c r="D9" t="n">
-        <v>178.3754046558724</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
@@ -1218,12 +1160,6 @@
       <c r="B10" t="n">
         <v>49</v>
       </c>
-      <c r="C10" t="n">
-        <v>-83.85073579688374</v>
-      </c>
-      <c r="D10" t="n">
-        <v>181.8080493927991</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
@@ -1232,12 +1168,6 @@
       <c r="B11" t="n">
         <v>49</v>
       </c>
-      <c r="C11" t="n">
-        <v>-77.04770440121435</v>
-      </c>
-      <c r="D11" t="n">
-        <v>180.6361588223857</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
@@ -1246,12 +1176,6 @@
       <c r="B12" t="n">
         <v>50</v>
       </c>
-      <c r="C12" t="n">
-        <v>-77.31079287670971</v>
-      </c>
-      <c r="D12" t="n">
-        <v>179.1027588761264</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
@@ -1260,12 +1184,6 @@
       <c r="B13" t="n">
         <v>51</v>
       </c>
-      <c r="C13" t="n">
-        <v>-86.1287455283346</v>
-      </c>
-      <c r="D13" t="n">
-        <v>191.295203910469</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
@@ -1274,12 +1192,6 @@
       <c r="B14" t="n">
         <v>52</v>
       </c>
-      <c r="C14" t="n">
-        <v>-81.97446575108042</v>
-      </c>
-      <c r="D14" t="n">
-        <v>185.9687576311161</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
@@ -1288,12 +1200,6 @@
       <c r="B15" t="n">
         <v>52</v>
       </c>
-      <c r="C15" t="n">
-        <v>-80.82025799688719</v>
-      </c>
-      <c r="D15" t="n">
-        <v>183.5826674569251</v>
-      </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
@@ -1302,12 +1208,6 @@
       <c r="B16" t="n">
         <v>53</v>
       </c>
-      <c r="C16" t="n">
-        <v>-94.42882673831336</v>
-      </c>
-      <c r="D16" t="n">
-        <v>179.4854933884369</v>
-      </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
@@ -1316,12 +1216,6 @@
       <c r="B17" t="n">
         <v>54</v>
       </c>
-      <c r="C17" t="n">
-        <v>-77.02516326182557</v>
-      </c>
-      <c r="D17" t="n">
-        <v>187.1012605418837</v>
-      </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
@@ -1330,12 +1224,6 @@
       <c r="B18" t="n">
         <v>55</v>
       </c>
-      <c r="C18" t="n">
-        <v>-78.18690059249755</v>
-      </c>
-      <c r="D18" t="n">
-        <v>185.8352624544149</v>
-      </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
@@ -1344,12 +1232,6 @@
       <c r="B19" t="n">
         <v>56</v>
       </c>
-      <c r="C19" t="n">
-        <v>-69.15390274680288</v>
-      </c>
-      <c r="D19" t="n">
-        <v>192.682248830942</v>
-      </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
@@ -1358,12 +1240,6 @@
       <c r="B20" t="n">
         <v>59</v>
       </c>
-      <c r="C20" t="n">
-        <v>-77.38715940872845</v>
-      </c>
-      <c r="D20" t="n">
-        <v>178.3257491138096</v>
-      </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
@@ -1372,12 +1248,6 @@
       <c r="B21" t="n">
         <v>60</v>
       </c>
-      <c r="C21" t="n">
-        <v>-72.86308029547567</v>
-      </c>
-      <c r="D21" t="n">
-        <v>194.751379990795</v>
-      </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
@@ -1386,12 +1256,6 @@
       <c r="B22" t="n">
         <v>61</v>
       </c>
-      <c r="C22" t="n">
-        <v>-73.61500877339516</v>
-      </c>
-      <c r="D22" t="n">
-        <v>191.8454596156341</v>
-      </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
@@ -1400,12 +1264,6 @@
       <c r="B23" t="n">
         <v>62</v>
       </c>
-      <c r="C23" t="n">
-        <v>-68.55901544253433</v>
-      </c>
-      <c r="D23" t="n">
-        <v>200.4273245778207</v>
-      </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
@@ -1414,12 +1272,6 @@
       <c r="B24" t="n">
         <v>64</v>
       </c>
-      <c r="C24" t="n">
-        <v>-74.16234316939151</v>
-      </c>
-      <c r="D24" t="n">
-        <v>194.6041687462691</v>
-      </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
@@ -1428,12 +1280,6 @@
       <c r="B25" t="n">
         <v>64</v>
       </c>
-      <c r="C25" t="n">
-        <v>-68.39610949551252</v>
-      </c>
-      <c r="D25" t="n">
-        <v>201.8970993431581</v>
-      </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
@@ -1442,12 +1288,6 @@
       <c r="B26" t="n">
         <v>66</v>
       </c>
-      <c r="C26" t="n">
-        <v>-67.90775758380006</v>
-      </c>
-      <c r="D26" t="n">
-        <v>201.6914081201685</v>
-      </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
@@ -1456,12 +1296,6 @@
       <c r="B27" t="n">
         <v>67</v>
       </c>
-      <c r="C27" t="n">
-        <v>-71.18075566966778</v>
-      </c>
-      <c r="D27" t="n">
-        <v>195.0971862846638</v>
-      </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
@@ -1470,12 +1304,6 @@
       <c r="B28" t="n">
         <v>67</v>
       </c>
-      <c r="C28" t="n">
-        <v>-65.14305839833482</v>
-      </c>
-      <c r="D28" t="n">
-        <v>195.7171030589973</v>
-      </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
@@ -1484,12 +1312,6 @@
       <c r="B29" t="n">
         <v>68</v>
       </c>
-      <c r="C29" t="n">
-        <v>-72.17878921177009</v>
-      </c>
-      <c r="D29" t="n">
-        <v>202.387267402619</v>
-      </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
@@ -1498,12 +1320,6 @@
       <c r="B30" t="n">
         <v>69</v>
       </c>
-      <c r="C30" t="n">
-        <v>-73.34111808371118</v>
-      </c>
-      <c r="D30" t="n">
-        <v>198.4290479865792</v>
-      </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
@@ -1512,12 +1328,6 @@
       <c r="B31" t="n">
         <v>70</v>
       </c>
-      <c r="C31" t="n">
-        <v>-56.67577420658425</v>
-      </c>
-      <c r="D31" t="n">
-        <v>215.0835933481424</v>
-      </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
@@ -1526,12 +1336,6 @@
       <c r="B32" t="n">
         <v>72</v>
       </c>
-      <c r="C32" t="n">
-        <v>-59.58270193933155</v>
-      </c>
-      <c r="D32" t="n">
-        <v>213.2818235495887</v>
-      </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
@@ -1540,12 +1344,6 @@
       <c r="B33" t="n">
         <v>74</v>
       </c>
-      <c r="C33" t="n">
-        <v>-54.60455913238223</v>
-      </c>
-      <c r="D33" t="n">
-        <v>209.2890730237712</v>
-      </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
@@ -1554,12 +1352,6 @@
       <c r="B34" t="n">
         <v>75</v>
       </c>
-      <c r="C34" t="n">
-        <v>-51.06743726399991</v>
-      </c>
-      <c r="D34" t="n">
-        <v>212.1685816866676</v>
-      </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
@@ -1568,12 +1360,6 @@
       <c r="B35" t="n">
         <v>76</v>
       </c>
-      <c r="C35" t="n">
-        <v>-60.87863763053552</v>
-      </c>
-      <c r="D35" t="n">
-        <v>198.8274402744682</v>
-      </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
@@ -1582,12 +1368,6 @@
       <c r="B36" t="n">
         <v>79</v>
       </c>
-      <c r="C36" t="n">
-        <v>-59.61924189774241</v>
-      </c>
-      <c r="D36" t="n">
-        <v>198.9335088402317</v>
-      </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
@@ -1596,12 +1376,6 @@
       <c r="B37" t="n">
         <v>79</v>
       </c>
-      <c r="C37" t="n">
-        <v>-56.84614039383105</v>
-      </c>
-      <c r="D37" t="n">
-        <v>206.2487291476089</v>
-      </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
@@ -1610,12 +1384,6 @@
       <c r="B38" t="n">
         <v>80</v>
       </c>
-      <c r="C38" t="n">
-        <v>-55.13084104117181</v>
-      </c>
-      <c r="D38" t="n">
-        <v>212.9843104681838</v>
-      </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
@@ -1624,12 +1392,6 @@
       <c r="B39" t="n">
         <v>81</v>
       </c>
-      <c r="C39" t="n">
-        <v>-50.76954443525399</v>
-      </c>
-      <c r="D39" t="n">
-        <v>204.5016200197873</v>
-      </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
@@ -1638,12 +1400,6 @@
       <c r="B40" t="n">
         <v>82</v>
       </c>
-      <c r="C40" t="n">
-        <v>-59.58941447617529</v>
-      </c>
-      <c r="D40" t="n">
-        <v>209.2721255467738</v>
-      </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
@@ -1652,12 +1408,6 @@
       <c r="B41" t="n">
         <v>83</v>
       </c>
-      <c r="C41" t="n">
-        <v>-50.35887676727876</v>
-      </c>
-      <c r="D41" t="n">
-        <v>223.163167085258</v>
-      </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
@@ -1666,12 +1416,6 @@
       <c r="B42" t="n">
         <v>84</v>
       </c>
-      <c r="C42" t="n">
-        <v>-38.51324335637922</v>
-      </c>
-      <c r="D42" t="n">
-        <v>215.3134641466439</v>
-      </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
@@ -1680,12 +1424,6 @@
       <c r="B43" t="n">
         <v>84</v>
       </c>
-      <c r="C43" t="n">
-        <v>-45.65863728436909</v>
-      </c>
-      <c r="D43" t="n">
-        <v>217.2923677341927</v>
-      </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
@@ -1694,12 +1432,6 @@
       <c r="B44" t="n">
         <v>85</v>
       </c>
-      <c r="C44" t="n">
-        <v>-44.37258817790311</v>
-      </c>
-      <c r="D44" t="n">
-        <v>220.8570796239159</v>
-      </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
@@ -1708,12 +1440,6 @@
       <c r="B45" t="n">
         <v>89</v>
       </c>
-      <c r="C45" t="n">
-        <v>-44.60167700595971</v>
-      </c>
-      <c r="D45" t="n">
-        <v>211.7279555178088</v>
-      </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
@@ -1722,12 +1448,6 @@
       <c r="B46" t="n">
         <v>89</v>
       </c>
-      <c r="C46" t="n">
-        <v>-33.77454135009368</v>
-      </c>
-      <c r="D46" t="n">
-        <v>232.8238515763462</v>
-      </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
@@ -1736,12 +1456,6 @@
       <c r="B47" t="n">
         <v>91</v>
       </c>
-      <c r="C47" t="n">
-        <v>-43.13864414665338</v>
-      </c>
-      <c r="D47" t="n">
-        <v>219.3779010775385</v>
-      </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
@@ -1750,12 +1464,6 @@
       <c r="B48" t="n">
         <v>92</v>
       </c>
-      <c r="C48" t="n">
-        <v>-42.12111442780365</v>
-      </c>
-      <c r="D48" t="n">
-        <v>225.6580613606374</v>
-      </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
@@ -1764,12 +1472,6 @@
       <c r="B49" t="n">
         <v>92</v>
       </c>
-      <c r="C49" t="n">
-        <v>-37.68556528628482</v>
-      </c>
-      <c r="D49" t="n">
-        <v>222.9284515360052</v>
-      </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
@@ -1778,12 +1480,6 @@
       <c r="B50" t="n">
         <v>93</v>
       </c>
-      <c r="C50" t="n">
-        <v>-39.71769902240941</v>
-      </c>
-      <c r="D50" t="n">
-        <v>224.4124304749129</v>
-      </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
@@ -1792,12 +1488,6 @@
       <c r="B51" t="n">
         <v>94</v>
       </c>
-      <c r="C51" t="n">
-        <v>-34.16100298626581</v>
-      </c>
-      <c r="D51" t="n">
-        <v>231.9076509029759</v>
-      </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
@@ -1806,12 +1496,6 @@
       <c r="B52" t="n">
         <v>94</v>
       </c>
-      <c r="C52" t="n">
-        <v>-33.9444576702701</v>
-      </c>
-      <c r="D52" t="n">
-        <v>229.2046116642845</v>
-      </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
@@ -1820,12 +1504,6 @@
       <c r="B53" t="n">
         <v>95</v>
       </c>
-      <c r="C53" t="n">
-        <v>-37.88884242486667</v>
-      </c>
-      <c r="D53" t="n">
-        <v>239.3693566359052</v>
-      </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
@@ -1834,12 +1512,6 @@
       <c r="B54" t="n">
         <v>96</v>
       </c>
-      <c r="C54" t="n">
-        <v>-34.65896578218703</v>
-      </c>
-      <c r="D54" t="n">
-        <v>233.6175535044598</v>
-      </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
@@ -1848,12 +1520,6 @@
       <c r="B55" t="n">
         <v>97</v>
       </c>
-      <c r="C55" t="n">
-        <v>-37.89812821312167</v>
-      </c>
-      <c r="D55" t="n">
-        <v>228.1334482286829</v>
-      </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="n">
@@ -1862,12 +1528,6 @@
       <c r="B56" t="n">
         <v>97</v>
       </c>
-      <c r="C56" t="n">
-        <v>-36.47231347910745</v>
-      </c>
-      <c r="D56" t="n">
-        <v>231.2108266560249</v>
-      </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="n">
@@ -1876,12 +1536,6 @@
       <c r="B57" t="n">
         <v>98</v>
       </c>
-      <c r="C57" t="n">
-        <v>-29.5925225822459</v>
-      </c>
-      <c r="D57" t="n">
-        <v>231.3198806285499</v>
-      </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="n">
@@ -1890,12 +1544,6 @@
       <c r="B58" t="n">
         <v>99</v>
       </c>
-      <c r="C58" t="n">
-        <v>-41.37707602714326</v>
-      </c>
-      <c r="D58" t="n">
-        <v>226.6649817629838</v>
-      </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="n">
@@ -1904,12 +1552,6 @@
       <c r="B59" t="n">
         <v>99</v>
       </c>
-      <c r="C59" t="n">
-        <v>-23.13701889821078</v>
-      </c>
-      <c r="D59" t="n">
-        <v>233.8623324681299</v>
-      </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="n">
@@ -1918,12 +1560,6 @@
       <c r="B60" t="n">
         <v>100</v>
       </c>
-      <c r="C60" t="n">
-        <v>-24.35929472797083</v>
-      </c>
-      <c r="D60" t="n">
-        <v>224.9723641279391</v>
-      </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="n">
@@ -1932,12 +1568,6 @@
       <c r="B61" t="n">
         <v>101</v>
       </c>
-      <c r="C61" t="n">
-        <v>-29.44259352608129</v>
-      </c>
-      <c r="D61" t="n">
-        <v>231.3619123069622</v>
-      </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="n">
@@ -1946,12 +1576,6 @@
       <c r="B62" t="n">
         <v>102</v>
       </c>
-      <c r="C62" t="n">
-        <v>-27.32735210404779</v>
-      </c>
-      <c r="D62" t="n">
-        <v>236.9718910869815</v>
-      </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="n">
@@ -1959,12 +1583,6 @@
       </c>
       <c r="B63" t="n">
         <v>102</v>
-      </c>
-      <c r="C63" t="n">
-        <v>-30.92341360175019</v>
-      </c>
-      <c r="D63" t="n">
-        <v>222.7479214096296</v>
       </c>
     </row>
   </sheetData>
